--- a/carbon_copy_excels/ea-20240930_Q2_carbon_copy.xlsx
+++ b/carbon_copy_excels/ea-20240930_Q2_carbon_copy.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="124">
   <si>
     <t>Statement Name</t>
   </si>
@@ -59,93 +59,78 @@
     <t>Line Item (as printed)</t>
   </si>
   <si>
-    <t>Six Months Ended September 30,  2023</t>
-  </si>
-  <si>
-    <t>Three Months Ended September 30,  2023</t>
-  </si>
-  <si>
-    <t>Six Months Ended September 30,  2024</t>
-  </si>
-  <si>
-    <t>Three Months Ended September 30,  2024</t>
+    <t>Six Months Ended September 30, 2023</t>
+  </si>
+  <si>
+    <t>Three Months Ended September 30, 2023</t>
+  </si>
+  <si>
+    <t>Six Months Ended September 30, 2024</t>
+  </si>
+  <si>
+    <t>Three Months Ended September 30, 2024</t>
   </si>
   <si>
     <t>Net revenue</t>
   </si>
   <si>
-    <t>2,025 1,914</t>
-  </si>
-  <si>
-    <t>Cost of revenue 456 456 719 824</t>
-  </si>
-  <si>
-    <t>Gross profit 1,569 1,458</t>
+    <t>Cost of revenue</t>
+  </si>
+  <si>
+    <t>Gross profit</t>
   </si>
   <si>
     <t>Operating expenses:</t>
   </si>
   <si>
-    <t>Research and development 648 602</t>
-  </si>
-  <si>
-    <t>Marketing and sales 272 280 477 509</t>
-  </si>
-  <si>
-    <t>General and administrative 197 173 377 336</t>
-  </si>
-  <si>
-    <t>Amortization and impairment of intangibles 17 24 34 49</t>
-  </si>
-  <si>
-    <t>Restructuring (See Note 7) 51 2 53 3</t>
-  </si>
-  <si>
-    <t>Total operating expenses 1,185 1,081</t>
-  </si>
-  <si>
-    <t>Operating income 384 377 748 919</t>
-  </si>
-  <si>
-    <t>Interest and other income (expense), 15 14 45 28</t>
+    <t>Research and development</t>
+  </si>
+  <si>
+    <t>Marketing and sales</t>
+  </si>
+  <si>
+    <t>General and administrative</t>
+  </si>
+  <si>
+    <t>Amortization and impairment of intangibles</t>
+  </si>
+  <si>
+    <t>Restructuring (See Note 7)</t>
+  </si>
+  <si>
+    <t>Total operating expenses</t>
+  </si>
+  <si>
+    <t>Operating income</t>
+  </si>
+  <si>
+    <t>Interest and other income (expense),</t>
   </si>
   <si>
     <t>Income before provision for (benefits from)</t>
   </si>
   <si>
-    <t>399 391 793 947</t>
-  </si>
-  <si>
     <t>income taxes</t>
   </si>
   <si>
-    <t>105 (8) 219 146</t>
-  </si>
-  <si>
     <t>Provision for (benefits from) income taxes</t>
   </si>
   <si>
-    <t>Net income 294 399 574 801</t>
+    <t>Net income</t>
   </si>
   <si>
     <t>Earnings per share:</t>
   </si>
   <si>
-    <t>Basic 1.11 1.47</t>
-  </si>
-  <si>
-    <t>Diluted 1.11 1.47</t>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Diluted</t>
   </si>
   <si>
     <t>Number of shares used in computation:</t>
   </si>
   <si>
-    <t>Basic 264 271 265 272</t>
-  </si>
-  <si>
-    <t>Diluted 266 272 267 273</t>
-  </si>
-  <si>
     <t>CONDENSED CONSOLIDATED BALANCE SHEETS</t>
   </si>
   <si>
@@ -260,61 +245,40 @@
     <t>p.3</t>
   </si>
   <si>
-    <t>Six Months Ended September 30, 2023</t>
-  </si>
-  <si>
-    <t>Six Months Ended September 30, 2024</t>
+    <t>(In millions)</t>
   </si>
   <si>
     <t>OPERATING ACTIVITIES</t>
   </si>
   <si>
-    <t>Net income 574 801</t>
-  </si>
-  <si>
     <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
   </si>
   <si>
-    <t>Depreciation, amortization, accretion and impairment 202 173</t>
-  </si>
-  <si>
-    <t>Stock-based compensation 317 285</t>
+    <t>Depreciation, amortization, accretion and impairment</t>
+  </si>
+  <si>
+    <t>Stock-based compensation</t>
   </si>
   <si>
     <t>Change in assets and liabilities:</t>
   </si>
   <si>
-    <t>Receivables, net (447) (367)</t>
-  </si>
-  <si>
-    <t>Other assets (20) 74</t>
-  </si>
-  <si>
-    <t>Accounts payable, accrued, and other liabilities 117 (200)</t>
-  </si>
-  <si>
-    <t>Deferred income taxes, net (50) 108</t>
-  </si>
-  <si>
-    <t>(339) (403)</t>
-  </si>
-  <si>
-    <t>Net cash provided by operating activities 354 471</t>
+    <t>Accounts payable, accrued, and other liabilities</t>
+  </si>
+  <si>
+    <t>Net cash provided by operating activities</t>
   </si>
   <si>
     <t>INVESTING ACTIVITIES</t>
   </si>
   <si>
-    <t>Capital expenditures (117) (96)</t>
-  </si>
-  <si>
-    <t>Proceeds from maturities and sales of short-term investments 239 302</t>
-  </si>
-  <si>
-    <t>Purchase of short-term investments (237) (313)</t>
-  </si>
-  <si>
-    <t>(115) (107)</t>
+    <t>Capital expenditures</t>
+  </si>
+  <si>
+    <t>Proceeds from maturities and sales of short-term investments</t>
+  </si>
+  <si>
+    <t>Purchase of short-term investments</t>
   </si>
   <si>
     <t>Net cash used in investing activities</t>
@@ -323,28 +287,22 @@
     <t>FINANCING ACTIVITIES</t>
   </si>
   <si>
-    <t>Cash dividends paid (101) (103)</t>
-  </si>
-  <si>
-    <t>Cash paid to taxing authorities for shares withheld from employees (139) (120)</t>
-  </si>
-  <si>
-    <t>Net cash used in financing activities (948) (833)</t>
-  </si>
-  <si>
-    <t>6 (9)</t>
+    <t>Cash dividends paid</t>
+  </si>
+  <si>
+    <t>Cash paid to taxing authorities for shares withheld from employees</t>
+  </si>
+  <si>
+    <t>Net cash used in financing activities</t>
   </si>
   <si>
     <t>Effect of foreign exchange on cash and cash equivalents</t>
   </si>
   <si>
-    <t>Increase (decrease) (703) (478)</t>
-  </si>
-  <si>
-    <t>Beginning cash and cash equivalents 2,900 2,424</t>
-  </si>
-  <si>
-    <t>2,197 1,946</t>
+    <t>Increase (decrease)</t>
+  </si>
+  <si>
+    <t>Beginning cash and cash equivalents</t>
   </si>
   <si>
     <t>Ending cash and cash equivalents</t>
@@ -353,10 +311,7 @@
     <t>Supplemental cash flow information:</t>
   </si>
   <si>
-    <t>Cash paid during the period for income taxes, net 209 56</t>
-  </si>
-  <si>
-    <t>28 28</t>
+    <t>Cash paid during the period for income taxes, net</t>
   </si>
   <si>
     <t>Cash paid during the period for interest</t>
@@ -410,22 +365,25 @@
     <t>Units/scale normalization</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>CHECK</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>March 31, 2024: insufficient data; September 30, 2024: insufficient data</t>
-  </si>
-  <si>
-    <t>Six Months Ended September 30, 2023: insufficient data; Six Months Ended September 30, 2024: insufficient data</t>
-  </si>
-  <si>
-    <t>Six Months Ended September 30,  2023: insufficient data; Three Months Ended September 30,  2023: insufficient data; Six Months Ended September 30,  2024: insufficient data; Three Months Ended September 30,  2024: insufficient data</t>
-  </si>
-  <si>
-    <t>Not enough data</t>
+    <t>March 31, 2024: Δ 0; September 30, 2024: Δ 0</t>
+  </si>
+  <si>
+    <t>Six Months Ended September 30, 2023: roll Δ 0; Six Months Ended September 30, 2024: roll Δ 0; tie Δ 0</t>
+  </si>
+  <si>
+    <t>Six Months Ended September 30, 2023: Δ 0; Three Months Ended September 30, 2023: Δ -402; Six Months Ended September 30, 2024: Δ 0; Three Months Ended September 30, 2024: Δ -280</t>
+  </si>
+  <si>
+    <t>Six Months Ended September 30, 2023: GP Δ 0, OI Δ 0, PT Δ 0; Three Months Ended September 30, 2023: GP Δ 0, OI Δ 0, PT Δ 0; Six Months Ended September 30, 2024: GP Δ 0, OI Δ 0, PT Δ 0; Three Months Ended September 30, 2024: GP Δ 0, OI Δ 0, PT Δ 0</t>
+  </si>
+  <si>
+    <t>Six Months Ended September 30, 2023: Δ 0; Six Months Ended September 30, 2024: Δ 0</t>
   </si>
   <si>
     <t>Captured pages: CONDENSED CONSOLIDATED STATEMENTS OF OPERATIONS p.2, CONDENSED CONSOLIDATED BALANCE SHEETS p.1, CONDENSED CONSOLIDATED STATEMENTS OF CASH FLOWS p.3. Columns reordered oldest→newest.</t>
@@ -789,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -868,22 +826,40 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
+      <c r="D8">
+        <v>3838</v>
+      </c>
+      <c r="E8">
+        <v>1914</v>
+      </c>
+      <c r="F8">
+        <v>3685</v>
+      </c>
+      <c r="G8">
+        <v>2025</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
+      <c r="D9">
+        <v>-824</v>
+      </c>
       <c r="E9">
-        <v>3838</v>
+        <v>-456</v>
+      </c>
+      <c r="F9">
+        <v>-719</v>
       </c>
       <c r="G9">
-        <v>3685</v>
+        <v>-456</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -895,6 +871,18 @@
       </c>
       <c r="C10" t="s">
         <v>19</v>
+      </c>
+      <c r="D10">
+        <v>3014</v>
+      </c>
+      <c r="E10">
+        <v>1458</v>
+      </c>
+      <c r="F10">
+        <v>2966</v>
+      </c>
+      <c r="G10">
+        <v>1569</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -907,22 +895,28 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="E11">
-        <v>3014</v>
-      </c>
-      <c r="G11">
-        <v>2966</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
+      </c>
+      <c r="D12">
+        <v>-1198</v>
+      </c>
+      <c r="E12">
+        <v>-602</v>
+      </c>
+      <c r="F12">
+        <v>-1277</v>
+      </c>
+      <c r="G12">
+        <v>-648</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -935,11 +929,17 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
+      <c r="D13">
+        <v>509</v>
+      </c>
       <c r="E13">
-        <v>-1198</v>
+        <v>280</v>
+      </c>
+      <c r="F13">
+        <v>477</v>
       </c>
       <c r="G13">
-        <v>-1277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -951,6 +951,18 @@
       </c>
       <c r="C14" t="s">
         <v>23</v>
+      </c>
+      <c r="D14">
+        <v>-336</v>
+      </c>
+      <c r="E14">
+        <v>-173</v>
+      </c>
+      <c r="F14">
+        <v>-377</v>
+      </c>
+      <c r="G14">
+        <v>-197</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -963,6 +975,18 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
+      <c r="D15">
+        <v>-49</v>
+      </c>
+      <c r="E15">
+        <v>-24</v>
+      </c>
+      <c r="F15">
+        <v>-34</v>
+      </c>
+      <c r="G15">
+        <v>-17</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
@@ -973,6 +997,18 @@
       </c>
       <c r="C16" t="s">
         <v>25</v>
+      </c>
+      <c r="D16">
+        <v>-3</v>
+      </c>
+      <c r="E16">
+        <v>-2</v>
+      </c>
+      <c r="F16">
+        <v>-53</v>
+      </c>
+      <c r="G16">
+        <v>-51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -980,10 +1016,22 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
+      </c>
+      <c r="D17">
+        <v>2095</v>
+      </c>
+      <c r="E17">
+        <v>1081</v>
+      </c>
+      <c r="F17">
+        <v>2218</v>
+      </c>
+      <c r="G17">
+        <v>1185</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -996,11 +1044,17 @@
       <c r="C18" t="s">
         <v>27</v>
       </c>
+      <c r="D18">
+        <v>919</v>
+      </c>
       <c r="E18">
-        <v>2095</v>
+        <v>377</v>
+      </c>
+      <c r="F18">
+        <v>748</v>
       </c>
       <c r="G18">
-        <v>2218</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1013,6 +1067,18 @@
       <c r="C19" t="s">
         <v>28</v>
       </c>
+      <c r="D19">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
@@ -1024,16 +1090,40 @@
       <c r="C20" t="s">
         <v>29</v>
       </c>
+      <c r="D20">
+        <v>947</v>
+      </c>
+      <c r="E20">
+        <v>391</v>
+      </c>
+      <c r="F20">
+        <v>793</v>
+      </c>
+      <c r="G20">
+        <v>399</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
         <v>14</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
+      </c>
+      <c r="D21">
+        <v>-146</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>-219</v>
+      </c>
+      <c r="G21">
+        <v>-105</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1041,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -1052,10 +1142,22 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
+      </c>
+      <c r="D23">
+        <v>801</v>
+      </c>
+      <c r="E23">
+        <v>399</v>
+      </c>
+      <c r="F23">
+        <v>574</v>
+      </c>
+      <c r="G23">
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1063,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -1074,10 +1176,22 @@
         <v>18</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
+      </c>
+      <c r="D25">
+        <v>2.94</v>
+      </c>
+      <c r="E25">
+        <v>1.47</v>
+      </c>
+      <c r="F25">
+        <v>2.17</v>
+      </c>
+      <c r="G25">
+        <v>1.11</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1085,10 +1199,22 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
+      </c>
+      <c r="D26">
+        <v>2.93</v>
+      </c>
+      <c r="E26">
+        <v>1.47</v>
+      </c>
+      <c r="F26">
+        <v>2.15</v>
+      </c>
+      <c r="G26">
+        <v>1.11</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1110,13 +1236,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>272</v>
       </c>
       <c r="E28">
-        <v>2.94</v>
+        <v>271</v>
+      </c>
+      <c r="F28">
+        <v>265</v>
       </c>
       <c r="G28">
-        <v>2.17</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1127,49 +1259,19 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>273</v>
       </c>
       <c r="E29">
-        <v>2.93</v>
+        <v>272</v>
+      </c>
+      <c r="F29">
+        <v>267</v>
       </c>
       <c r="G29">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>23</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>24</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>25</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1222,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1236,10 +1338,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1250,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1261,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1272,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>2900</v>
@@ -1289,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>362</v>
@@ -1306,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>565</v>
@@ -1323,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>420</v>
@@ -1340,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>4247</v>
@@ -1357,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>578</v>
@@ -1374,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>5379</v>
@@ -1391,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>400</v>
@@ -1408,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D18">
         <v>2380</v>
@@ -1425,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>436</v>
@@ -1442,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>13420</v>
@@ -1459,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1470,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1481,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>1276</v>
@@ -1498,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>1814</v>
@@ -1515,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>3090</v>
@@ -1532,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D26">
         <v>1882</v>
@@ -1549,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>497</v>
@@ -1566,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D28">
         <v>438</v>
@@ -1583,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>5907</v>
@@ -1600,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1611,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1622,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1639,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1650,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1661,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D35">
         <v>7582</v>
@@ -1678,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D36">
         <v>-72</v>
@@ -1695,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D37">
         <v>7513</v>
@@ -1712,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D38">
         <v>13420</v>
@@ -1729,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1750,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1782,7 +1884,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1796,10 +1898,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1810,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1821,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1829,10 +1931,16 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>801</v>
+      </c>
+      <c r="E10">
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1840,10 +1948,10 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1854,7 +1962,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>173</v>
+      </c>
+      <c r="E12">
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1865,7 +1979,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>285</v>
+      </c>
+      <c r="E13">
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1876,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1887,7 +2007,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>-367</v>
+      </c>
+      <c r="E15">
+        <v>-447</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1898,10 +2024,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>74</v>
+      </c>
+      <c r="E16">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1909,10 +2041,16 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="D17">
+        <v>-200</v>
+      </c>
+      <c r="E17">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1920,10 +2058,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>108</v>
+      </c>
+      <c r="E18">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1931,10 +2075,16 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>-403</v>
+      </c>
+      <c r="E19">
+        <v>-339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1942,10 +2092,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D20">
+        <v>471</v>
+      </c>
+      <c r="E20">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>14</v>
       </c>
@@ -1953,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1964,10 +2120,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <v>-96</v>
+      </c>
+      <c r="E22">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>16</v>
       </c>
@@ -1975,10 +2137,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D23">
+        <v>302</v>
+      </c>
+      <c r="E23">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>17</v>
       </c>
@@ -1986,21 +2154,33 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="D24">
+        <v>-313</v>
+      </c>
+      <c r="E24">
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>18</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="D25">
+        <v>-107</v>
+      </c>
+      <c r="E25">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>19</v>
       </c>
@@ -2008,21 +2188,27 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>20</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>21</v>
       </c>
@@ -2030,10 +2216,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <v>-103</v>
+      </c>
+      <c r="E28">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>22</v>
       </c>
@@ -2041,10 +2233,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>-120</v>
+      </c>
+      <c r="E29">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>23</v>
       </c>
@@ -2052,21 +2250,33 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>-650</v>
+      </c>
+      <c r="E30">
+        <v>-750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>24</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="D31">
+        <v>-833</v>
+      </c>
+      <c r="E31">
+        <v>-948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>25</v>
       </c>
@@ -2074,21 +2284,33 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="D32">
+        <v>-9</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>26</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="D33">
+        <v>-478</v>
+      </c>
+      <c r="E33">
+        <v>-703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>27</v>
       </c>
@@ -2096,10 +2318,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>94</v>
+      </c>
+      <c r="D34">
+        <v>2424</v>
+      </c>
+      <c r="E34">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>28</v>
       </c>
@@ -2107,10 +2335,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>95</v>
+      </c>
+      <c r="D35">
+        <v>1946</v>
+      </c>
+      <c r="E35">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>29</v>
       </c>
@@ -2118,84 +2352,52 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>30</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>-56</v>
+      </c>
+      <c r="E37">
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>31</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="D38">
+        <v>-28</v>
+      </c>
+      <c r="E38">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>32</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>33</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>34</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>35</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>36</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2407,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K237"/>
+  <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2213,7 +2415,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2225,10 +2427,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2237,13 +2439,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2262,6 +2464,9 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
+      <c r="F2">
+        <v>3838</v>
+      </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -2291,6 +2496,9 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="F3">
+        <v>1914</v>
+      </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
@@ -2320,6 +2528,9 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4">
+        <v>3685</v>
+      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -2349,6 +2560,9 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
+      <c r="F5">
+        <v>2025</v>
+      </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
@@ -2370,7 +2584,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -2378,6 +2592,9 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
+      <c r="F6">
+        <v>-824</v>
+      </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
@@ -2399,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2408,7 +2625,7 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>3838</v>
+        <v>-456</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -2431,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -2439,6 +2656,9 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
+      <c r="F8">
+        <v>-719</v>
+      </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
@@ -2460,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2469,7 +2689,7 @@
         <v>16</v>
       </c>
       <c r="F9">
-        <v>3685</v>
+        <v>-456</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -2500,6 +2720,9 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
+      <c r="F10">
+        <v>3014</v>
+      </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
@@ -2529,6 +2752,9 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
+      <c r="F11">
+        <v>1458</v>
+      </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
@@ -2558,6 +2784,9 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
+      <c r="F12">
+        <v>2966</v>
+      </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
@@ -2587,6 +2816,9 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
+      <c r="F13">
+        <v>1569</v>
+      </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
@@ -2645,9 +2877,6 @@
       <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="F15">
-        <v>3014</v>
-      </c>
       <c r="G15" t="s">
         <v>3</v>
       </c>
@@ -2706,9 +2935,6 @@
       <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="F17">
-        <v>2966</v>
-      </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
@@ -2730,7 +2956,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -2738,6 +2964,9 @@
       <c r="E18" t="s">
         <v>13</v>
       </c>
+      <c r="F18">
+        <v>-1198</v>
+      </c>
       <c r="G18" t="s">
         <v>3</v>
       </c>
@@ -2759,7 +2988,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -2767,6 +2996,9 @@
       <c r="E19" t="s">
         <v>14</v>
       </c>
+      <c r="F19">
+        <v>-602</v>
+      </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
@@ -2788,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -2796,6 +3028,9 @@
       <c r="E20" t="s">
         <v>15</v>
       </c>
+      <c r="F20">
+        <v>-1277</v>
+      </c>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -2817,7 +3052,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -2825,6 +3060,9 @@
       <c r="E21" t="s">
         <v>16</v>
       </c>
+      <c r="F21">
+        <v>-648</v>
+      </c>
       <c r="G21" t="s">
         <v>3</v>
       </c>
@@ -2854,6 +3092,9 @@
       <c r="E22" t="s">
         <v>13</v>
       </c>
+      <c r="F22">
+        <v>509</v>
+      </c>
       <c r="G22" t="s">
         <v>3</v>
       </c>
@@ -2884,7 +3125,7 @@
         <v>14</v>
       </c>
       <c r="F23">
-        <v>-1198</v>
+        <v>280</v>
       </c>
       <c r="G23" t="s">
         <v>3</v>
@@ -2915,6 +3156,9 @@
       <c r="E24" t="s">
         <v>15</v>
       </c>
+      <c r="F24">
+        <v>477</v>
+      </c>
       <c r="G24" t="s">
         <v>3</v>
       </c>
@@ -2945,7 +3189,7 @@
         <v>16</v>
       </c>
       <c r="F25">
-        <v>-1277</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
         <v>3</v>
@@ -2976,6 +3220,9 @@
       <c r="E26" t="s">
         <v>13</v>
       </c>
+      <c r="F26">
+        <v>-336</v>
+      </c>
       <c r="G26" t="s">
         <v>3</v>
       </c>
@@ -3005,6 +3252,9 @@
       <c r="E27" t="s">
         <v>14</v>
       </c>
+      <c r="F27">
+        <v>-173</v>
+      </c>
       <c r="G27" t="s">
         <v>3</v>
       </c>
@@ -3034,6 +3284,9 @@
       <c r="E28" t="s">
         <v>15</v>
       </c>
+      <c r="F28">
+        <v>-377</v>
+      </c>
       <c r="G28" t="s">
         <v>3</v>
       </c>
@@ -3063,6 +3316,9 @@
       <c r="E29" t="s">
         <v>16</v>
       </c>
+      <c r="F29">
+        <v>-197</v>
+      </c>
       <c r="G29" t="s">
         <v>3</v>
       </c>
@@ -3092,6 +3348,9 @@
       <c r="E30" t="s">
         <v>13</v>
       </c>
+      <c r="F30">
+        <v>-49</v>
+      </c>
       <c r="G30" t="s">
         <v>3</v>
       </c>
@@ -3121,6 +3380,9 @@
       <c r="E31" t="s">
         <v>14</v>
       </c>
+      <c r="F31">
+        <v>-24</v>
+      </c>
       <c r="G31" t="s">
         <v>3</v>
       </c>
@@ -3150,6 +3412,9 @@
       <c r="E32" t="s">
         <v>15</v>
       </c>
+      <c r="F32">
+        <v>-34</v>
+      </c>
       <c r="G32" t="s">
         <v>3</v>
       </c>
@@ -3179,6 +3444,9 @@
       <c r="E33" t="s">
         <v>16</v>
       </c>
+      <c r="F33">
+        <v>-17</v>
+      </c>
       <c r="G33" t="s">
         <v>3</v>
       </c>
@@ -3208,6 +3476,9 @@
       <c r="E34" t="s">
         <v>13</v>
       </c>
+      <c r="F34">
+        <v>-3</v>
+      </c>
       <c r="G34" t="s">
         <v>3</v>
       </c>
@@ -3237,6 +3508,9 @@
       <c r="E35" t="s">
         <v>14</v>
       </c>
+      <c r="F35">
+        <v>-2</v>
+      </c>
       <c r="G35" t="s">
         <v>3</v>
       </c>
@@ -3266,6 +3540,9 @@
       <c r="E36" t="s">
         <v>15</v>
       </c>
+      <c r="F36">
+        <v>-53</v>
+      </c>
       <c r="G36" t="s">
         <v>3</v>
       </c>
@@ -3295,6 +3572,9 @@
       <c r="E37" t="s">
         <v>16</v>
       </c>
+      <c r="F37">
+        <v>-51</v>
+      </c>
       <c r="G37" t="s">
         <v>3</v>
       </c>
@@ -3316,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -3324,6 +3604,9 @@
       <c r="E38" t="s">
         <v>13</v>
       </c>
+      <c r="F38">
+        <v>2095</v>
+      </c>
       <c r="G38" t="s">
         <v>3</v>
       </c>
@@ -3345,7 +3628,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
@@ -3353,6 +3636,9 @@
       <c r="E39" t="s">
         <v>14</v>
       </c>
+      <c r="F39">
+        <v>1081</v>
+      </c>
       <c r="G39" t="s">
         <v>3</v>
       </c>
@@ -3374,7 +3660,7 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -3382,6 +3668,9 @@
       <c r="E40" t="s">
         <v>15</v>
       </c>
+      <c r="F40">
+        <v>2218</v>
+      </c>
       <c r="G40" t="s">
         <v>3</v>
       </c>
@@ -3403,7 +3692,7 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>26</v>
@@ -3411,6 +3700,9 @@
       <c r="E41" t="s">
         <v>16</v>
       </c>
+      <c r="F41">
+        <v>1185</v>
+      </c>
       <c r="G41" t="s">
         <v>3</v>
       </c>
@@ -3440,6 +3732,9 @@
       <c r="E42" t="s">
         <v>13</v>
       </c>
+      <c r="F42">
+        <v>919</v>
+      </c>
       <c r="G42" t="s">
         <v>3</v>
       </c>
@@ -3470,7 +3765,7 @@
         <v>14</v>
       </c>
       <c r="F43">
-        <v>2095</v>
+        <v>377</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
@@ -3501,6 +3796,9 @@
       <c r="E44" t="s">
         <v>15</v>
       </c>
+      <c r="F44">
+        <v>748</v>
+      </c>
       <c r="G44" t="s">
         <v>3</v>
       </c>
@@ -3531,7 +3829,7 @@
         <v>16</v>
       </c>
       <c r="F45">
-        <v>2218</v>
+        <v>384</v>
       </c>
       <c r="G45" t="s">
         <v>3</v>
@@ -3562,6 +3860,9 @@
       <c r="E46" t="s">
         <v>13</v>
       </c>
+      <c r="F46">
+        <v>28</v>
+      </c>
       <c r="G46" t="s">
         <v>3</v>
       </c>
@@ -3591,6 +3892,9 @@
       <c r="E47" t="s">
         <v>14</v>
       </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
       <c r="G47" t="s">
         <v>3</v>
       </c>
@@ -3620,6 +3924,9 @@
       <c r="E48" t="s">
         <v>15</v>
       </c>
+      <c r="F48">
+        <v>45</v>
+      </c>
       <c r="G48" t="s">
         <v>3</v>
       </c>
@@ -3649,6 +3956,9 @@
       <c r="E49" t="s">
         <v>16</v>
       </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
       <c r="G49" t="s">
         <v>3</v>
       </c>
@@ -3678,6 +3988,9 @@
       <c r="E50" t="s">
         <v>13</v>
       </c>
+      <c r="F50">
+        <v>947</v>
+      </c>
       <c r="G50" t="s">
         <v>3</v>
       </c>
@@ -3707,6 +4020,9 @@
       <c r="E51" t="s">
         <v>14</v>
       </c>
+      <c r="F51">
+        <v>391</v>
+      </c>
       <c r="G51" t="s">
         <v>3</v>
       </c>
@@ -3736,6 +4052,9 @@
       <c r="E52" t="s">
         <v>15</v>
       </c>
+      <c r="F52">
+        <v>793</v>
+      </c>
       <c r="G52" t="s">
         <v>3</v>
       </c>
@@ -3765,6 +4084,9 @@
       <c r="E53" t="s">
         <v>16</v>
       </c>
+      <c r="F53">
+        <v>399</v>
+      </c>
       <c r="G53" t="s">
         <v>3</v>
       </c>
@@ -3786,7 +4108,7 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
         <v>30</v>
@@ -3794,6 +4116,9 @@
       <c r="E54" t="s">
         <v>13</v>
       </c>
+      <c r="F54">
+        <v>-146</v>
+      </c>
       <c r="G54" t="s">
         <v>3</v>
       </c>
@@ -3815,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
         <v>30</v>
@@ -3823,6 +4148,9 @@
       <c r="E55" t="s">
         <v>14</v>
       </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
       <c r="G55" t="s">
         <v>3</v>
       </c>
@@ -3844,7 +4172,7 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
         <v>30</v>
@@ -3852,6 +4180,9 @@
       <c r="E56" t="s">
         <v>15</v>
       </c>
+      <c r="F56">
+        <v>-219</v>
+      </c>
       <c r="G56" t="s">
         <v>3</v>
       </c>
@@ -3873,7 +4204,7 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>30</v>
@@ -3881,6 +4212,9 @@
       <c r="E57" t="s">
         <v>16</v>
       </c>
+      <c r="F57">
+        <v>-105</v>
+      </c>
       <c r="G57" t="s">
         <v>3</v>
       </c>
@@ -3902,7 +4236,7 @@
         <v>15</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" t="s">
         <v>31</v>
@@ -3931,7 +4265,7 @@
         <v>15</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59" t="s">
         <v>31</v>
@@ -3960,7 +4294,7 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" t="s">
         <v>31</v>
@@ -3989,7 +4323,7 @@
         <v>15</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D61" t="s">
         <v>31</v>
@@ -4018,7 +4352,7 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="s">
         <v>32</v>
@@ -4026,6 +4360,9 @@
       <c r="E62" t="s">
         <v>13</v>
       </c>
+      <c r="F62">
+        <v>801</v>
+      </c>
       <c r="G62" t="s">
         <v>3</v>
       </c>
@@ -4047,7 +4384,7 @@
         <v>16</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="s">
         <v>32</v>
@@ -4055,6 +4392,9 @@
       <c r="E63" t="s">
         <v>14</v>
       </c>
+      <c r="F63">
+        <v>399</v>
+      </c>
       <c r="G63" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4416,7 @@
         <v>16</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="s">
         <v>32</v>
@@ -4084,6 +4424,9 @@
       <c r="E64" t="s">
         <v>15</v>
       </c>
+      <c r="F64">
+        <v>574</v>
+      </c>
       <c r="G64" t="s">
         <v>3</v>
       </c>
@@ -4105,7 +4448,7 @@
         <v>16</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="s">
         <v>32</v>
@@ -4113,6 +4456,9 @@
       <c r="E65" t="s">
         <v>16</v>
       </c>
+      <c r="F65">
+        <v>294</v>
+      </c>
       <c r="G65" t="s">
         <v>3</v>
       </c>
@@ -4134,7 +4480,7 @@
         <v>17</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66" t="s">
         <v>33</v>
@@ -4163,7 +4509,7 @@
         <v>17</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67" t="s">
         <v>33</v>
@@ -4192,7 +4538,7 @@
         <v>17</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
@@ -4221,7 +4567,7 @@
         <v>17</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
         <v>33</v>
@@ -4250,7 +4596,7 @@
         <v>18</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
         <v>34</v>
@@ -4258,6 +4604,9 @@
       <c r="E70" t="s">
         <v>13</v>
       </c>
+      <c r="F70">
+        <v>2.94</v>
+      </c>
       <c r="G70" t="s">
         <v>3</v>
       </c>
@@ -4279,7 +4628,7 @@
         <v>18</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
         <v>34</v>
@@ -4287,6 +4636,9 @@
       <c r="E71" t="s">
         <v>14</v>
       </c>
+      <c r="F71">
+        <v>1.47</v>
+      </c>
       <c r="G71" t="s">
         <v>3</v>
       </c>
@@ -4308,7 +4660,7 @@
         <v>18</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
         <v>34</v>
@@ -4316,6 +4668,9 @@
       <c r="E72" t="s">
         <v>15</v>
       </c>
+      <c r="F72">
+        <v>2.17</v>
+      </c>
       <c r="G72" t="s">
         <v>3</v>
       </c>
@@ -4337,7 +4692,7 @@
         <v>18</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
         <v>34</v>
@@ -4345,6 +4700,9 @@
       <c r="E73" t="s">
         <v>16</v>
       </c>
+      <c r="F73">
+        <v>1.11</v>
+      </c>
       <c r="G73" t="s">
         <v>3</v>
       </c>
@@ -4366,7 +4724,7 @@
         <v>19</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
@@ -4374,6 +4732,9 @@
       <c r="E74" t="s">
         <v>13</v>
       </c>
+      <c r="F74">
+        <v>2.93</v>
+      </c>
       <c r="G74" t="s">
         <v>3</v>
       </c>
@@ -4395,7 +4756,7 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
         <v>35</v>
@@ -4403,6 +4764,9 @@
       <c r="E75" t="s">
         <v>14</v>
       </c>
+      <c r="F75">
+        <v>1.47</v>
+      </c>
       <c r="G75" t="s">
         <v>3</v>
       </c>
@@ -4424,7 +4788,7 @@
         <v>19</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="s">
         <v>35</v>
@@ -4432,6 +4796,9 @@
       <c r="E76" t="s">
         <v>15</v>
       </c>
+      <c r="F76">
+        <v>2.15</v>
+      </c>
       <c r="G76" t="s">
         <v>3</v>
       </c>
@@ -4453,7 +4820,7 @@
         <v>19</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
         <v>35</v>
@@ -4461,6 +4828,9 @@
       <c r="E77" t="s">
         <v>16</v>
       </c>
+      <c r="F77">
+        <v>1.11</v>
+      </c>
       <c r="G77" t="s">
         <v>3</v>
       </c>
@@ -4601,11 +4971,14 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
       </c>
+      <c r="F82">
+        <v>272</v>
+      </c>
       <c r="G82" t="s">
         <v>3</v>
       </c>
@@ -4630,13 +5003,13 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83">
-        <v>2.94</v>
+        <v>271</v>
       </c>
       <c r="G83" t="s">
         <v>3</v>
@@ -4662,11 +5035,14 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
       </c>
+      <c r="F84">
+        <v>265</v>
+      </c>
       <c r="G84" t="s">
         <v>3</v>
       </c>
@@ -4691,13 +5067,13 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E85" t="s">
         <v>16</v>
       </c>
       <c r="F85">
-        <v>2.17</v>
+        <v>264</v>
       </c>
       <c r="G85" t="s">
         <v>3</v>
@@ -4723,11 +5099,14 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
       </c>
+      <c r="F86">
+        <v>273</v>
+      </c>
       <c r="G86" t="s">
         <v>3</v>
       </c>
@@ -4752,13 +5131,13 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87">
-        <v>2.93</v>
+        <v>272</v>
       </c>
       <c r="G87" t="s">
         <v>3</v>
@@ -4784,11 +5163,14 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
       </c>
+      <c r="F88">
+        <v>267</v>
+      </c>
       <c r="G88" t="s">
         <v>3</v>
       </c>
@@ -4813,13 +5195,13 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s">
         <v>16</v>
       </c>
       <c r="F89">
-        <v>2.15</v>
+        <v>266</v>
       </c>
       <c r="G89" t="s">
         <v>3</v>
@@ -4836,20 +5218,20 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" t="s">
         <v>39</v>
       </c>
-      <c r="E90" t="s">
-        <v>13</v>
-      </c>
       <c r="G90" t="s">
         <v>3</v>
       </c>
@@ -4860,24 +5242,24 @@
         <v>7</v>
       </c>
       <c r="K90" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B91">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>3</v>
@@ -4889,25 +5271,25 @@
         <v>7</v>
       </c>
       <c r="K91" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B92">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" t="s">
         <v>39</v>
       </c>
-      <c r="E92" t="s">
-        <v>15</v>
-      </c>
       <c r="G92" t="s">
         <v>3</v>
       </c>
@@ -4918,24 +5300,24 @@
         <v>7</v>
       </c>
       <c r="K92" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B93">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
         <v>3</v>
@@ -4947,24 +5329,27 @@
         <v>7</v>
       </c>
       <c r="K93" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B94">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="F94">
+        <v>2900</v>
       </c>
       <c r="G94" t="s">
         <v>3</v>
@@ -4976,24 +5361,27 @@
         <v>7</v>
       </c>
       <c r="K94" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B95">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" t="s">
         <v>40</v>
       </c>
-      <c r="E95" t="s">
-        <v>14</v>
+      <c r="F95">
+        <v>2197</v>
       </c>
       <c r="G95" t="s">
         <v>3</v>
@@ -5005,24 +5393,27 @@
         <v>7</v>
       </c>
       <c r="K95" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B96">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F96">
+        <v>362</v>
       </c>
       <c r="G96" t="s">
         <v>3</v>
@@ -5034,24 +5425,27 @@
         <v>7</v>
       </c>
       <c r="K96" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B97">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" t="s">
         <v>40</v>
       </c>
-      <c r="E97" t="s">
-        <v>16</v>
+      <c r="F97">
+        <v>366</v>
       </c>
       <c r="G97" t="s">
         <v>3</v>
@@ -5063,24 +5457,27 @@
         <v>7</v>
       </c>
       <c r="K97" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B98">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="F98">
+        <v>565</v>
       </c>
       <c r="G98" t="s">
         <v>3</v>
@@ -5092,24 +5489,27 @@
         <v>7</v>
       </c>
       <c r="K98" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B99">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="F99">
+        <v>1012</v>
       </c>
       <c r="G99" t="s">
         <v>3</v>
@@ -5121,24 +5521,27 @@
         <v>7</v>
       </c>
       <c r="K99" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B100">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F100">
+        <v>420</v>
       </c>
       <c r="G100" t="s">
         <v>3</v>
@@ -5150,27 +5553,27 @@
         <v>7</v>
       </c>
       <c r="K100" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B101">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="G101" t="s">
         <v>3</v>
@@ -5182,24 +5585,27 @@
         <v>7</v>
       </c>
       <c r="K101" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="F102">
+        <v>4247</v>
       </c>
       <c r="G102" t="s">
         <v>3</v>
@@ -5211,24 +5617,27 @@
         <v>7</v>
       </c>
       <c r="K102" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F103">
+        <v>3972</v>
       </c>
       <c r="G103" t="s">
         <v>3</v>
@@ -5240,24 +5649,27 @@
         <v>7</v>
       </c>
       <c r="K103" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="F104">
+        <v>578</v>
       </c>
       <c r="G104" t="s">
         <v>3</v>
@@ -5269,24 +5681,27 @@
         <v>7</v>
       </c>
       <c r="K104" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F105">
+        <v>578</v>
       </c>
       <c r="G105" t="s">
         <v>3</v>
@@ -5298,27 +5713,27 @@
         <v>7</v>
       </c>
       <c r="K105" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F106">
-        <v>2900</v>
+        <v>5379</v>
       </c>
       <c r="G106" t="s">
         <v>3</v>
@@ -5330,27 +5745,27 @@
         <v>7</v>
       </c>
       <c r="K106" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F107">
-        <v>2197</v>
+        <v>5381</v>
       </c>
       <c r="G107" t="s">
         <v>3</v>
@@ -5362,27 +5777,27 @@
         <v>7</v>
       </c>
       <c r="K107" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F108">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="G108" t="s">
         <v>3</v>
@@ -5394,27 +5809,27 @@
         <v>7</v>
       </c>
       <c r="K108" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F109">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="G109" t="s">
         <v>3</v>
@@ -5426,27 +5841,27 @@
         <v>7</v>
       </c>
       <c r="K109" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F110">
-        <v>565</v>
+        <v>2380</v>
       </c>
       <c r="G110" t="s">
         <v>3</v>
@@ -5458,27 +5873,27 @@
         <v>7</v>
       </c>
       <c r="K110" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F111">
-        <v>1012</v>
+        <v>2431</v>
       </c>
       <c r="G111" t="s">
         <v>3</v>
@@ -5490,27 +5905,27 @@
         <v>7</v>
       </c>
       <c r="K111" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F112">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="G112" t="s">
         <v>3</v>
@@ -5522,27 +5937,27 @@
         <v>7</v>
       </c>
       <c r="K112" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F113">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="G113" t="s">
         <v>3</v>
@@ -5554,27 +5969,27 @@
         <v>7</v>
       </c>
       <c r="K113" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F114">
-        <v>4247</v>
+        <v>13420</v>
       </c>
       <c r="G114" t="s">
         <v>3</v>
@@ -5586,27 +6001,27 @@
         <v>7</v>
       </c>
       <c r="K114" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F115">
-        <v>3972</v>
+        <v>13136</v>
       </c>
       <c r="G115" t="s">
         <v>3</v>
@@ -5618,27 +6033,24 @@
         <v>7</v>
       </c>
       <c r="K115" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B116">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
-      </c>
-      <c r="F116">
-        <v>578</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
         <v>3</v>
@@ -5650,27 +6062,24 @@
         <v>7</v>
       </c>
       <c r="K116" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B117">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
-      </c>
-      <c r="F117">
-        <v>578</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
         <v>3</v>
@@ -5682,27 +6091,24 @@
         <v>7</v>
       </c>
       <c r="K117" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
-      </c>
-      <c r="F118">
-        <v>5379</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
         <v>3</v>
@@ -5714,27 +6120,24 @@
         <v>7</v>
       </c>
       <c r="K118" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
-      </c>
-      <c r="F119">
-        <v>5381</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
         <v>3</v>
@@ -5746,27 +6149,27 @@
         <v>7</v>
       </c>
       <c r="K119" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F120">
-        <v>400</v>
+        <v>1276</v>
       </c>
       <c r="G120" t="s">
         <v>3</v>
@@ -5778,27 +6181,27 @@
         <v>7</v>
       </c>
       <c r="K120" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B121">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F121">
-        <v>346</v>
+        <v>1312</v>
       </c>
       <c r="G121" t="s">
         <v>3</v>
@@ -5810,27 +6213,27 @@
         <v>7</v>
       </c>
       <c r="K121" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F122">
-        <v>2380</v>
+        <v>1814</v>
       </c>
       <c r="G122" t="s">
         <v>3</v>
@@ -5842,27 +6245,27 @@
         <v>7</v>
       </c>
       <c r="K122" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F123">
-        <v>2431</v>
+        <v>1475</v>
       </c>
       <c r="G123" t="s">
         <v>3</v>
@@ -5874,27 +6277,27 @@
         <v>7</v>
       </c>
       <c r="K123" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F124">
-        <v>436</v>
+        <v>3090</v>
       </c>
       <c r="G124" t="s">
         <v>3</v>
@@ -5906,27 +6309,27 @@
         <v>7</v>
       </c>
       <c r="K124" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E125" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F125">
-        <v>428</v>
+        <v>2787</v>
       </c>
       <c r="G125" t="s">
         <v>3</v>
@@ -5938,27 +6341,27 @@
         <v>7</v>
       </c>
       <c r="K125" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F126">
-        <v>13420</v>
+        <v>1882</v>
       </c>
       <c r="G126" t="s">
         <v>3</v>
@@ -5970,27 +6373,27 @@
         <v>7</v>
       </c>
       <c r="K126" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B127">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F127">
-        <v>13136</v>
+        <v>1883</v>
       </c>
       <c r="G127" t="s">
         <v>3</v>
@@ -6002,24 +6405,27 @@
         <v>7</v>
       </c>
       <c r="K127" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B128">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="F128">
+        <v>497</v>
       </c>
       <c r="G128" t="s">
         <v>3</v>
@@ -6031,24 +6437,27 @@
         <v>7</v>
       </c>
       <c r="K128" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F129">
+        <v>552</v>
       </c>
       <c r="G129" t="s">
         <v>3</v>
@@ -6060,24 +6469,27 @@
         <v>7</v>
       </c>
       <c r="K129" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B130">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="F130">
+        <v>438</v>
       </c>
       <c r="G130" t="s">
         <v>3</v>
@@ -6089,24 +6501,27 @@
         <v>7</v>
       </c>
       <c r="K130" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B131">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E131" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F131">
+        <v>506</v>
       </c>
       <c r="G131" t="s">
         <v>3</v>
@@ -6118,27 +6533,27 @@
         <v>7</v>
       </c>
       <c r="K131" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B132">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F132">
-        <v>1276</v>
+        <v>5907</v>
       </c>
       <c r="G132" t="s">
         <v>3</v>
@@ -6150,27 +6565,27 @@
         <v>7</v>
       </c>
       <c r="K132" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B133">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E133" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F133">
-        <v>1312</v>
+        <v>5728</v>
       </c>
       <c r="G133" t="s">
         <v>3</v>
@@ -6182,27 +6597,24 @@
         <v>7</v>
       </c>
       <c r="K133" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B134">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
-      </c>
-      <c r="F134">
-        <v>1814</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
         <v>3</v>
@@ -6214,27 +6626,24 @@
         <v>7</v>
       </c>
       <c r="K134" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B135">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
-      </c>
-      <c r="F135">
-        <v>1475</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
         <v>3</v>
@@ -6246,27 +6655,24 @@
         <v>7</v>
       </c>
       <c r="K135" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B136">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E136" t="s">
-        <v>44</v>
-      </c>
-      <c r="F136">
-        <v>3090</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
         <v>3</v>
@@ -6278,27 +6684,24 @@
         <v>7</v>
       </c>
       <c r="K136" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B137">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E137" t="s">
-        <v>45</v>
-      </c>
-      <c r="F137">
-        <v>2787</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
         <v>3</v>
@@ -6310,27 +6713,27 @@
         <v>7</v>
       </c>
       <c r="K137" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B138">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E138" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F138">
-        <v>1882</v>
+        <v>3</v>
       </c>
       <c r="G138" t="s">
         <v>3</v>
@@ -6342,27 +6745,27 @@
         <v>7</v>
       </c>
       <c r="K138" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B139">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F139">
-        <v>1883</v>
+        <v>3</v>
       </c>
       <c r="G139" t="s">
         <v>3</v>
@@ -6374,27 +6777,24 @@
         <v>7</v>
       </c>
       <c r="K139" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B140">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
-      </c>
-      <c r="F140">
-        <v>497</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
         <v>3</v>
@@ -6406,27 +6806,24 @@
         <v>7</v>
       </c>
       <c r="K140" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B141">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E141" t="s">
-        <v>45</v>
-      </c>
-      <c r="F141">
-        <v>552</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
         <v>3</v>
@@ -6438,27 +6835,24 @@
         <v>7</v>
       </c>
       <c r="K141" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B142">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
-      </c>
-      <c r="F142">
-        <v>438</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
         <v>3</v>
@@ -6470,27 +6864,24 @@
         <v>7</v>
       </c>
       <c r="K142" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B143">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E143" t="s">
-        <v>45</v>
-      </c>
-      <c r="F143">
-        <v>506</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
         <v>3</v>
@@ -6502,27 +6893,27 @@
         <v>7</v>
       </c>
       <c r="K143" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B144">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F144">
-        <v>5907</v>
+        <v>7582</v>
       </c>
       <c r="G144" t="s">
         <v>3</v>
@@ -6534,27 +6925,27 @@
         <v>7</v>
       </c>
       <c r="K144" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B145">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E145" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F145">
-        <v>5728</v>
+        <v>7520</v>
       </c>
       <c r="G145" t="s">
         <v>3</v>
@@ -6566,24 +6957,27 @@
         <v>7</v>
       </c>
       <c r="K145" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B146">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="F146">
+        <v>-72</v>
       </c>
       <c r="G146" t="s">
         <v>3</v>
@@ -6595,24 +6989,27 @@
         <v>7</v>
       </c>
       <c r="K146" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B147">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E147" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F147">
+        <v>-115</v>
       </c>
       <c r="G147" t="s">
         <v>3</v>
@@ -6624,24 +7021,27 @@
         <v>7</v>
       </c>
       <c r="K147" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B148">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E148" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="F148">
+        <v>7513</v>
       </c>
       <c r="G148" t="s">
         <v>3</v>
@@ -6653,24 +7053,27 @@
         <v>7</v>
       </c>
       <c r="K148" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B149">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E149" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F149">
+        <v>7408</v>
       </c>
       <c r="G149" t="s">
         <v>3</v>
@@ -6682,27 +7085,27 @@
         <v>7</v>
       </c>
       <c r="K149" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B150">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E150" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F150">
-        <v>3</v>
+        <v>13420</v>
       </c>
       <c r="G150" t="s">
         <v>3</v>
@@ -6714,27 +7117,27 @@
         <v>7</v>
       </c>
       <c r="K150" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B151">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E151" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F151">
-        <v>3</v>
+        <v>13136</v>
       </c>
       <c r="G151" t="s">
         <v>3</v>
@@ -6746,24 +7149,24 @@
         <v>7</v>
       </c>
       <c r="K151" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B152">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E152" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>3</v>
@@ -6775,24 +7178,24 @@
         <v>7</v>
       </c>
       <c r="K152" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B153">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E153" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
         <v>3</v>
@@ -6804,24 +7207,24 @@
         <v>7</v>
       </c>
       <c r="K153" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B154">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E154" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
         <v>3</v>
@@ -6833,24 +7236,24 @@
         <v>7</v>
       </c>
       <c r="K154" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B155">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E155" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G155" t="s">
         <v>3</v>
@@ -6862,27 +7265,24 @@
         <v>7</v>
       </c>
       <c r="K155" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B156">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E156" t="s">
-        <v>44</v>
-      </c>
-      <c r="F156">
-        <v>7582</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
         <v>3</v>
@@ -6894,27 +7294,24 @@
         <v>7</v>
       </c>
       <c r="K156" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B157">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E157" t="s">
-        <v>45</v>
-      </c>
-      <c r="F157">
-        <v>7520</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
         <v>3</v>
@@ -6926,91 +7323,88 @@
         <v>7</v>
       </c>
       <c r="K157" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B158">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="s">
+        <v>32</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158">
+        <v>801</v>
+      </c>
+      <c r="G158" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" t="s">
+        <v>5</v>
+      </c>
+      <c r="J158" t="s">
+        <v>7</v>
+      </c>
+      <c r="K158" t="s">
         <v>74</v>
-      </c>
-      <c r="E158" t="s">
-        <v>44</v>
-      </c>
-      <c r="F158">
-        <v>-72</v>
-      </c>
-      <c r="G158" t="s">
-        <v>3</v>
-      </c>
-      <c r="H158" t="s">
-        <v>5</v>
-      </c>
-      <c r="J158" t="s">
-        <v>7</v>
-      </c>
-      <c r="K158" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B159">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="s">
+        <v>32</v>
+      </c>
+      <c r="E159" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159">
+        <v>574</v>
+      </c>
+      <c r="G159" t="s">
+        <v>3</v>
+      </c>
+      <c r="H159" t="s">
+        <v>5</v>
+      </c>
+      <c r="J159" t="s">
+        <v>7</v>
+      </c>
+      <c r="K159" t="s">
         <v>74</v>
-      </c>
-      <c r="E159" t="s">
-        <v>45</v>
-      </c>
-      <c r="F159">
-        <v>-115</v>
-      </c>
-      <c r="G159" t="s">
-        <v>3</v>
-      </c>
-      <c r="H159" t="s">
-        <v>5</v>
-      </c>
-      <c r="J159" t="s">
-        <v>7</v>
-      </c>
-      <c r="K159" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B160">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E160" t="s">
-        <v>44</v>
-      </c>
-      <c r="F160">
-        <v>7513</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
         <v>3</v>
@@ -7022,27 +7416,24 @@
         <v>7</v>
       </c>
       <c r="K160" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B161">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
-      </c>
-      <c r="F161">
-        <v>7408</v>
+        <v>15</v>
       </c>
       <c r="G161" t="s">
         <v>3</v>
@@ -7054,27 +7445,27 @@
         <v>7</v>
       </c>
       <c r="K161" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B162">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E162" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F162">
-        <v>13420</v>
+        <v>173</v>
       </c>
       <c r="G162" t="s">
         <v>3</v>
@@ -7086,27 +7477,27 @@
         <v>7</v>
       </c>
       <c r="K162" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B163">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F163">
-        <v>13136</v>
+        <v>202</v>
       </c>
       <c r="G163" t="s">
         <v>3</v>
@@ -7118,24 +7509,27 @@
         <v>7</v>
       </c>
       <c r="K163" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B164">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E164" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="F164">
+        <v>285</v>
       </c>
       <c r="G164" t="s">
         <v>3</v>
@@ -7147,24 +7541,27 @@
         <v>7</v>
       </c>
       <c r="K164" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B165">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="F165">
+        <v>317</v>
       </c>
       <c r="G165" t="s">
         <v>3</v>
@@ -7176,24 +7573,24 @@
         <v>7</v>
       </c>
       <c r="K165" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E166" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
         <v>3</v>
@@ -7205,24 +7602,24 @@
         <v>7</v>
       </c>
       <c r="K166" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E167" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="G167" t="s">
         <v>3</v>
@@ -7234,24 +7631,27 @@
         <v>7</v>
       </c>
       <c r="K167" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B168">
+        <v>8</v>
+      </c>
+      <c r="C168">
         <v>2</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
       <c r="D168" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E168" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F168">
+        <v>-367</v>
       </c>
       <c r="G168" t="s">
         <v>3</v>
@@ -7263,24 +7663,27 @@
         <v>7</v>
       </c>
       <c r="K168" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B169">
+        <v>8</v>
+      </c>
+      <c r="C169">
         <v>2</v>
       </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
       <c r="D169" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E169" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F169">
+        <v>-447</v>
       </c>
       <c r="G169" t="s">
         <v>3</v>
@@ -7292,24 +7695,27 @@
         <v>7</v>
       </c>
       <c r="K169" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E170" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F170">
+        <v>74</v>
       </c>
       <c r="G170" t="s">
         <v>3</v>
@@ -7321,24 +7727,27 @@
         <v>7</v>
       </c>
       <c r="K170" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E171" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F171">
+        <v>-20</v>
       </c>
       <c r="G171" t="s">
         <v>3</v>
@@ -7350,24 +7759,27 @@
         <v>7</v>
       </c>
       <c r="K171" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E172" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F172">
+        <v>-200</v>
       </c>
       <c r="G172" t="s">
         <v>3</v>
@@ -7379,24 +7791,27 @@
         <v>7</v>
       </c>
       <c r="K172" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E173" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F173">
+        <v>117</v>
       </c>
       <c r="G173" t="s">
         <v>3</v>
@@ -7408,24 +7823,27 @@
         <v>7</v>
       </c>
       <c r="K173" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B174">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C174">
         <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E174" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F174">
+        <v>108</v>
       </c>
       <c r="G174" t="s">
         <v>3</v>
@@ -7437,24 +7855,27 @@
         <v>7</v>
       </c>
       <c r="K174" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B175">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C175">
         <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E175" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F175">
+        <v>-50</v>
       </c>
       <c r="G175" t="s">
         <v>3</v>
@@ -7466,24 +7887,27 @@
         <v>7</v>
       </c>
       <c r="K175" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B176">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C176">
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E176" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F176">
+        <v>-403</v>
       </c>
       <c r="G176" t="s">
         <v>3</v>
@@ -7495,24 +7919,27 @@
         <v>7</v>
       </c>
       <c r="K176" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B177">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E177" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F177">
+        <v>-339</v>
       </c>
       <c r="G177" t="s">
         <v>3</v>
@@ -7524,24 +7951,27 @@
         <v>7</v>
       </c>
       <c r="K177" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B178">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E178" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F178">
+        <v>471</v>
       </c>
       <c r="G178" t="s">
         <v>3</v>
@@ -7553,24 +7983,27 @@
         <v>7</v>
       </c>
       <c r="K178" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B179">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E179" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F179">
+        <v>354</v>
       </c>
       <c r="G179" t="s">
         <v>3</v>
@@ -7582,24 +8015,24 @@
         <v>7</v>
       </c>
       <c r="K179" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B180">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E180" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
         <v>3</v>
@@ -7611,24 +8044,24 @@
         <v>7</v>
       </c>
       <c r="K180" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B181">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E181" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="G181" t="s">
         <v>3</v>
@@ -7640,24 +8073,27 @@
         <v>7</v>
       </c>
       <c r="K181" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B182">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E182" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F182">
+        <v>-96</v>
       </c>
       <c r="G182" t="s">
         <v>3</v>
@@ -7669,24 +8105,27 @@
         <v>7</v>
       </c>
       <c r="K182" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B183">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E183" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F183">
+        <v>-117</v>
       </c>
       <c r="G183" t="s">
         <v>3</v>
@@ -7698,24 +8137,27 @@
         <v>7</v>
       </c>
       <c r="K183" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B184">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E184" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F184">
+        <v>302</v>
       </c>
       <c r="G184" t="s">
         <v>3</v>
@@ -7727,24 +8169,27 @@
         <v>7</v>
       </c>
       <c r="K184" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B185">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E185" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F185">
+        <v>239</v>
       </c>
       <c r="G185" t="s">
         <v>3</v>
@@ -7756,24 +8201,27 @@
         <v>7</v>
       </c>
       <c r="K185" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B186">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E186" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F186">
+        <v>-313</v>
       </c>
       <c r="G186" t="s">
         <v>3</v>
@@ -7785,24 +8233,27 @@
         <v>7</v>
       </c>
       <c r="K186" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B187">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E187" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F187">
+        <v>-237</v>
       </c>
       <c r="G187" t="s">
         <v>3</v>
@@ -7814,24 +8265,27 @@
         <v>7</v>
       </c>
       <c r="K187" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B188">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E188" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F188">
+        <v>-107</v>
       </c>
       <c r="G188" t="s">
         <v>3</v>
@@ -7843,24 +8297,27 @@
         <v>7</v>
       </c>
       <c r="K188" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B189">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E189" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F189">
+        <v>-115</v>
       </c>
       <c r="G189" t="s">
         <v>3</v>
@@ -7872,25 +8329,25 @@
         <v>7</v>
       </c>
       <c r="K189" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B190">
+        <v>19</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>88</v>
+      </c>
+      <c r="E190" t="s">
         <v>13</v>
       </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190" t="s">
-        <v>93</v>
-      </c>
-      <c r="E190" t="s">
-        <v>80</v>
-      </c>
       <c r="G190" t="s">
         <v>3</v>
       </c>
@@ -7901,24 +8358,24 @@
         <v>7</v>
       </c>
       <c r="K190" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B191">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E191" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="G191" t="s">
         <v>3</v>
@@ -7930,24 +8387,27 @@
         <v>7</v>
       </c>
       <c r="K191" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B192">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E192" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F192">
+        <v>40</v>
       </c>
       <c r="G192" t="s">
         <v>3</v>
@@ -7959,24 +8419,27 @@
         <v>7</v>
       </c>
       <c r="K192" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B193">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E193" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F193">
+        <v>42</v>
       </c>
       <c r="G193" t="s">
         <v>3</v>
@@ -7988,24 +8451,27 @@
         <v>7</v>
       </c>
       <c r="K193" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B194">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E194" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F194">
+        <v>-103</v>
       </c>
       <c r="G194" t="s">
         <v>3</v>
@@ -8017,24 +8483,27 @@
         <v>7</v>
       </c>
       <c r="K194" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B195">
+        <v>21</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>89</v>
+      </c>
+      <c r="E195" t="s">
         <v>15</v>
       </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-      <c r="D195" t="s">
-        <v>95</v>
-      </c>
-      <c r="E195" t="s">
-        <v>81</v>
+      <c r="F195">
+        <v>-101</v>
       </c>
       <c r="G195" t="s">
         <v>3</v>
@@ -8046,24 +8515,27 @@
         <v>7</v>
       </c>
       <c r="K195" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B196">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E196" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F196">
+        <v>-120</v>
       </c>
       <c r="G196" t="s">
         <v>3</v>
@@ -8075,24 +8547,27 @@
         <v>7</v>
       </c>
       <c r="K196" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B197">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E197" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F197">
+        <v>-139</v>
       </c>
       <c r="G197" t="s">
         <v>3</v>
@@ -8104,24 +8579,27 @@
         <v>7</v>
       </c>
       <c r="K197" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B198">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E198" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F198">
+        <v>-650</v>
       </c>
       <c r="G198" t="s">
         <v>3</v>
@@ -8133,24 +8611,27 @@
         <v>7</v>
       </c>
       <c r="K198" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B199">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E199" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F199">
+        <v>-750</v>
       </c>
       <c r="G199" t="s">
         <v>3</v>
@@ -8162,24 +8643,27 @@
         <v>7</v>
       </c>
       <c r="K199" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B200">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E200" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F200">
+        <v>-833</v>
       </c>
       <c r="G200" t="s">
         <v>3</v>
@@ -8191,24 +8675,27 @@
         <v>7</v>
       </c>
       <c r="K200" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B201">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E201" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F201">
+        <v>-948</v>
       </c>
       <c r="G201" t="s">
         <v>3</v>
@@ -8220,24 +8707,27 @@
         <v>7</v>
       </c>
       <c r="K201" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B202">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E202" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F202">
+        <v>-9</v>
       </c>
       <c r="G202" t="s">
         <v>3</v>
@@ -8249,24 +8739,27 @@
         <v>7</v>
       </c>
       <c r="K202" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B203">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="D203" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E203" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F203">
+        <v>6</v>
       </c>
       <c r="G203" t="s">
         <v>3</v>
@@ -8278,24 +8771,27 @@
         <v>7</v>
       </c>
       <c r="K203" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B204">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E204" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F204">
+        <v>-478</v>
       </c>
       <c r="G204" t="s">
         <v>3</v>
@@ -8307,24 +8803,27 @@
         <v>7</v>
       </c>
       <c r="K204" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B205">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C205">
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E205" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F205">
+        <v>-703</v>
       </c>
       <c r="G205" t="s">
         <v>3</v>
@@ -8336,24 +8835,27 @@
         <v>7</v>
       </c>
       <c r="K205" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B206">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E206" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F206">
+        <v>2424</v>
       </c>
       <c r="G206" t="s">
         <v>3</v>
@@ -8365,24 +8867,27 @@
         <v>7</v>
       </c>
       <c r="K206" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B207">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E207" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F207">
+        <v>2900</v>
       </c>
       <c r="G207" t="s">
         <v>3</v>
@@ -8394,24 +8899,27 @@
         <v>7</v>
       </c>
       <c r="K207" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B208">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E208" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F208">
+        <v>1946</v>
       </c>
       <c r="G208" t="s">
         <v>3</v>
@@ -8423,24 +8931,27 @@
         <v>7</v>
       </c>
       <c r="K208" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B209">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E209" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F209">
+        <v>2197</v>
       </c>
       <c r="G209" t="s">
         <v>3</v>
@@ -8452,24 +8963,24 @@
         <v>7</v>
       </c>
       <c r="K209" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B210">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E210" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G210" t="s">
         <v>3</v>
@@ -8481,24 +8992,24 @@
         <v>7</v>
       </c>
       <c r="K210" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B211">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E211" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="G211" t="s">
         <v>3</v>
@@ -8510,24 +9021,27 @@
         <v>7</v>
       </c>
       <c r="K211" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B212">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E212" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F212">
+        <v>-56</v>
       </c>
       <c r="G212" t="s">
         <v>3</v>
@@ -8539,24 +9053,27 @@
         <v>7</v>
       </c>
       <c r="K212" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B213">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E213" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F213">
+        <v>-209</v>
       </c>
       <c r="G213" t="s">
         <v>3</v>
@@ -8568,24 +9085,27 @@
         <v>7</v>
       </c>
       <c r="K213" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B214">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E214" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="F214">
+        <v>-28</v>
       </c>
       <c r="G214" t="s">
         <v>3</v>
@@ -8597,24 +9117,27 @@
         <v>7</v>
       </c>
       <c r="K214" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B215">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E215" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="F215">
+        <v>-28</v>
       </c>
       <c r="G215" t="s">
         <v>3</v>
@@ -8626,24 +9149,24 @@
         <v>7</v>
       </c>
       <c r="K215" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B216">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
       <c r="D216" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E216" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
         <v>3</v>
@@ -8655,24 +9178,24 @@
         <v>7</v>
       </c>
       <c r="K216" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B217">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C217">
         <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E217" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="G217" t="s">
         <v>3</v>
@@ -8684,587 +9207,7 @@
         <v>7</v>
       </c>
       <c r="K217" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11">
-      <c r="A218" t="s">
-        <v>78</v>
-      </c>
-      <c r="B218">
-        <v>27</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="D218" t="s">
-        <v>105</v>
-      </c>
-      <c r="E218" t="s">
-        <v>80</v>
-      </c>
-      <c r="G218" t="s">
-        <v>3</v>
-      </c>
-      <c r="H218" t="s">
-        <v>5</v>
-      </c>
-      <c r="J218" t="s">
-        <v>7</v>
-      </c>
-      <c r="K218" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11">
-      <c r="A219" t="s">
-        <v>78</v>
-      </c>
-      <c r="B219">
-        <v>27</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="D219" t="s">
-        <v>105</v>
-      </c>
-      <c r="E219" t="s">
-        <v>81</v>
-      </c>
-      <c r="G219" t="s">
-        <v>3</v>
-      </c>
-      <c r="H219" t="s">
-        <v>5</v>
-      </c>
-      <c r="J219" t="s">
-        <v>7</v>
-      </c>
-      <c r="K219" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11">
-      <c r="A220" t="s">
-        <v>78</v>
-      </c>
-      <c r="B220">
-        <v>28</v>
-      </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-      <c r="D220" t="s">
-        <v>106</v>
-      </c>
-      <c r="E220" t="s">
-        <v>80</v>
-      </c>
-      <c r="G220" t="s">
-        <v>3</v>
-      </c>
-      <c r="H220" t="s">
-        <v>5</v>
-      </c>
-      <c r="J220" t="s">
-        <v>7</v>
-      </c>
-      <c r="K220" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11">
-      <c r="A221" t="s">
-        <v>78</v>
-      </c>
-      <c r="B221">
-        <v>28</v>
-      </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-      <c r="D221" t="s">
-        <v>106</v>
-      </c>
-      <c r="E221" t="s">
-        <v>81</v>
-      </c>
-      <c r="G221" t="s">
-        <v>3</v>
-      </c>
-      <c r="H221" t="s">
-        <v>5</v>
-      </c>
-      <c r="J221" t="s">
-        <v>7</v>
-      </c>
-      <c r="K221" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11">
-      <c r="A222" t="s">
-        <v>78</v>
-      </c>
-      <c r="B222">
-        <v>29</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222" t="s">
-        <v>107</v>
-      </c>
-      <c r="E222" t="s">
-        <v>80</v>
-      </c>
-      <c r="G222" t="s">
-        <v>3</v>
-      </c>
-      <c r="H222" t="s">
-        <v>5</v>
-      </c>
-      <c r="J222" t="s">
-        <v>7</v>
-      </c>
-      <c r="K222" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11">
-      <c r="A223" t="s">
-        <v>78</v>
-      </c>
-      <c r="B223">
-        <v>29</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-      <c r="D223" t="s">
-        <v>107</v>
-      </c>
-      <c r="E223" t="s">
-        <v>81</v>
-      </c>
-      <c r="G223" t="s">
-        <v>3</v>
-      </c>
-      <c r="H223" t="s">
-        <v>5</v>
-      </c>
-      <c r="J223" t="s">
-        <v>7</v>
-      </c>
-      <c r="K223" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11">
-      <c r="A224" t="s">
-        <v>78</v>
-      </c>
-      <c r="B224">
-        <v>30</v>
-      </c>
-      <c r="C224">
-        <v>2</v>
-      </c>
-      <c r="D224" t="s">
-        <v>108</v>
-      </c>
-      <c r="E224" t="s">
-        <v>80</v>
-      </c>
-      <c r="G224" t="s">
-        <v>3</v>
-      </c>
-      <c r="H224" t="s">
-        <v>5</v>
-      </c>
-      <c r="J224" t="s">
-        <v>7</v>
-      </c>
-      <c r="K224" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
-      <c r="A225" t="s">
-        <v>78</v>
-      </c>
-      <c r="B225">
-        <v>30</v>
-      </c>
-      <c r="C225">
-        <v>2</v>
-      </c>
-      <c r="D225" t="s">
-        <v>108</v>
-      </c>
-      <c r="E225" t="s">
-        <v>81</v>
-      </c>
-      <c r="G225" t="s">
-        <v>3</v>
-      </c>
-      <c r="H225" t="s">
-        <v>5</v>
-      </c>
-      <c r="J225" t="s">
-        <v>7</v>
-      </c>
-      <c r="K225" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
-      <c r="A226" t="s">
-        <v>78</v>
-      </c>
-      <c r="B226">
-        <v>31</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226" t="s">
-        <v>109</v>
-      </c>
-      <c r="E226" t="s">
-        <v>80</v>
-      </c>
-      <c r="G226" t="s">
-        <v>3</v>
-      </c>
-      <c r="H226" t="s">
-        <v>5</v>
-      </c>
-      <c r="J226" t="s">
-        <v>7</v>
-      </c>
-      <c r="K226" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11">
-      <c r="A227" t="s">
-        <v>78</v>
-      </c>
-      <c r="B227">
-        <v>31</v>
-      </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-      <c r="D227" t="s">
-        <v>109</v>
-      </c>
-      <c r="E227" t="s">
-        <v>81</v>
-      </c>
-      <c r="G227" t="s">
-        <v>3</v>
-      </c>
-      <c r="H227" t="s">
-        <v>5</v>
-      </c>
-      <c r="J227" t="s">
-        <v>7</v>
-      </c>
-      <c r="K227" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11">
-      <c r="A228" t="s">
-        <v>78</v>
-      </c>
-      <c r="B228">
-        <v>32</v>
-      </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228" t="s">
-        <v>110</v>
-      </c>
-      <c r="E228" t="s">
-        <v>80</v>
-      </c>
-      <c r="G228" t="s">
-        <v>3</v>
-      </c>
-      <c r="H228" t="s">
-        <v>5</v>
-      </c>
-      <c r="J228" t="s">
-        <v>7</v>
-      </c>
-      <c r="K228" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
-      <c r="A229" t="s">
-        <v>78</v>
-      </c>
-      <c r="B229">
-        <v>32</v>
-      </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-      <c r="D229" t="s">
-        <v>110</v>
-      </c>
-      <c r="E229" t="s">
-        <v>81</v>
-      </c>
-      <c r="G229" t="s">
-        <v>3</v>
-      </c>
-      <c r="H229" t="s">
-        <v>5</v>
-      </c>
-      <c r="J229" t="s">
-        <v>7</v>
-      </c>
-      <c r="K229" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
-      <c r="A230" t="s">
-        <v>78</v>
-      </c>
-      <c r="B230">
-        <v>33</v>
-      </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230" t="s">
-        <v>111</v>
-      </c>
-      <c r="E230" t="s">
-        <v>80</v>
-      </c>
-      <c r="G230" t="s">
-        <v>3</v>
-      </c>
-      <c r="H230" t="s">
-        <v>5</v>
-      </c>
-      <c r="J230" t="s">
-        <v>7</v>
-      </c>
-      <c r="K230" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
-      <c r="A231" t="s">
-        <v>78</v>
-      </c>
-      <c r="B231">
-        <v>33</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231" t="s">
-        <v>111</v>
-      </c>
-      <c r="E231" t="s">
-        <v>81</v>
-      </c>
-      <c r="G231" t="s">
-        <v>3</v>
-      </c>
-      <c r="H231" t="s">
-        <v>5</v>
-      </c>
-      <c r="J231" t="s">
-        <v>7</v>
-      </c>
-      <c r="K231" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
-      <c r="A232" t="s">
-        <v>78</v>
-      </c>
-      <c r="B232">
-        <v>34</v>
-      </c>
-      <c r="C232">
-        <v>2</v>
-      </c>
-      <c r="D232" t="s">
-        <v>112</v>
-      </c>
-      <c r="E232" t="s">
-        <v>80</v>
-      </c>
-      <c r="G232" t="s">
-        <v>3</v>
-      </c>
-      <c r="H232" t="s">
-        <v>5</v>
-      </c>
-      <c r="J232" t="s">
-        <v>7</v>
-      </c>
-      <c r="K232" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
-      <c r="A233" t="s">
-        <v>78</v>
-      </c>
-      <c r="B233">
-        <v>34</v>
-      </c>
-      <c r="C233">
-        <v>2</v>
-      </c>
-      <c r="D233" t="s">
-        <v>112</v>
-      </c>
-      <c r="E233" t="s">
-        <v>81</v>
-      </c>
-      <c r="G233" t="s">
-        <v>3</v>
-      </c>
-      <c r="H233" t="s">
-        <v>5</v>
-      </c>
-      <c r="J233" t="s">
-        <v>7</v>
-      </c>
-      <c r="K233" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
-      <c r="A234" t="s">
-        <v>78</v>
-      </c>
-      <c r="B234">
-        <v>35</v>
-      </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234" t="s">
-        <v>113</v>
-      </c>
-      <c r="E234" t="s">
-        <v>80</v>
-      </c>
-      <c r="G234" t="s">
-        <v>3</v>
-      </c>
-      <c r="H234" t="s">
-        <v>5</v>
-      </c>
-      <c r="J234" t="s">
-        <v>7</v>
-      </c>
-      <c r="K234" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
-      <c r="A235" t="s">
-        <v>78</v>
-      </c>
-      <c r="B235">
-        <v>35</v>
-      </c>
-      <c r="C235">
-        <v>1</v>
-      </c>
-      <c r="D235" t="s">
-        <v>113</v>
-      </c>
-      <c r="E235" t="s">
-        <v>81</v>
-      </c>
-      <c r="G235" t="s">
-        <v>3</v>
-      </c>
-      <c r="H235" t="s">
-        <v>5</v>
-      </c>
-      <c r="J235" t="s">
-        <v>7</v>
-      </c>
-      <c r="K235" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11">
-      <c r="A236" t="s">
-        <v>78</v>
-      </c>
-      <c r="B236">
-        <v>36</v>
-      </c>
-      <c r="C236">
-        <v>2</v>
-      </c>
-      <c r="D236" t="s">
-        <v>114</v>
-      </c>
-      <c r="E236" t="s">
-        <v>80</v>
-      </c>
-      <c r="G236" t="s">
-        <v>3</v>
-      </c>
-      <c r="H236" t="s">
-        <v>5</v>
-      </c>
-      <c r="J236" t="s">
-        <v>7</v>
-      </c>
-      <c r="K236" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11">
-      <c r="A237" t="s">
-        <v>78</v>
-      </c>
-      <c r="B237">
-        <v>36</v>
-      </c>
-      <c r="C237">
-        <v>2</v>
-      </c>
-      <c r="D237" t="s">
-        <v>114</v>
-      </c>
-      <c r="E237" t="s">
-        <v>81</v>
-      </c>
-      <c r="G237" t="s">
-        <v>3</v>
-      </c>
-      <c r="H237" t="s">
-        <v>5</v>
-      </c>
-      <c r="J237" t="s">
-        <v>7</v>
-      </c>
-      <c r="K237" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -9282,90 +9225,90 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
